--- a/Tabela/Copacabana/Copacabana-1.xlsx
+++ b/Tabela/Copacabana/Copacabana-1.xlsx
@@ -14,360 +14,339 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="111">
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>na planta</t>
+  </si>
+  <si>
+    <t>super destaque</t>
+  </si>
+  <si>
+    <t>destaque</t>
+  </si>
+  <si>
+    <t>R$ 3.307.000</t>
+  </si>
+  <si>
+    <t>R$ 749.000</t>
+  </si>
+  <si>
+    <t>R$ 539.000</t>
+  </si>
+  <si>
+    <t>R$ 1.400.000</t>
+  </si>
+  <si>
+    <t>R$ 1.120.000</t>
+  </si>
+  <si>
+    <t>R$ 880.000</t>
+  </si>
+  <si>
+    <t>R$ 2.640.000</t>
+  </si>
+  <si>
+    <t>R$ 2.590.000</t>
+  </si>
+  <si>
+    <t>R$ 820.000</t>
+  </si>
+  <si>
+    <t>R$ 980.000</t>
+  </si>
+  <si>
+    <t>R$ 580.000</t>
+  </si>
+  <si>
+    <t>R$ 380.000</t>
+  </si>
+  <si>
+    <t>R$ 789.000</t>
+  </si>
+  <si>
+    <t>R$ 2.800.000</t>
+  </si>
+  <si>
+    <t>R$ 1.200.000</t>
+  </si>
+  <si>
+    <t>R$ 397.000</t>
+  </si>
+  <si>
+    <t>R$ 390.000</t>
+  </si>
+  <si>
+    <t>R$ 770.000</t>
+  </si>
+  <si>
+    <t>R$ 850.000</t>
+  </si>
+  <si>
+    <t>R$ 2.280.000</t>
+  </si>
+  <si>
+    <t>R$ 320.000</t>
+  </si>
+  <si>
+    <t>O Haus 34 reúne o melhor de dois mundos para proporcionar uma nova forma de morar no bairro Botafogo. As 09 unidades exclusivas do empreendimento reproduzem o conforto e a liberdad...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 834 IPTU R$ 1.779</t>
+  </si>
+  <si>
+    <t>condomínioR$ 619 IPTU R$ 120</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.300 IPTU R$ 430</t>
+  </si>
+  <si>
+    <t>condomínioR$ 965 IPTU R$ 4.667</t>
+  </si>
+  <si>
+    <t>condomínioR$ 824 IPTU R$ 2.200</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.700</t>
+  </si>
+  <si>
+    <t>condomínioR$ 4.000 IPTU R$ 8.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 810 IPTU R$ 1.720</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.290 IPTU R$ 1.600</t>
+  </si>
+  <si>
+    <t>condomínioR$ 650 IPTU R$ 1.674</t>
+  </si>
+  <si>
+    <t>condomínioR$ 525 IPTU R$ 60</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.122 IPTU R$ 3.175</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.260 IPTU R$ 2.183</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.925 IPTU R$ 10.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 950</t>
+  </si>
+  <si>
+    <t>condomínioR$ 550 IPTU R$ 100</t>
+  </si>
+  <si>
+    <t>condomínioR$ 490 IPTU R$ 685</t>
+  </si>
+  <si>
+    <t>condomínioR$ 810 IPTU R$ 260</t>
+  </si>
+  <si>
+    <t>condomínioR$ 633 IPTU R$ 1.677</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.560 IPTU R$ 4.606</t>
+  </si>
+  <si>
+    <t>condomínioR$ 609 IPTU R$ 2.154</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
+  <si>
+    <t>Cód: NSAP21358. Quadra da praia! Localização ímpar! Prédio residencial com portaria 24h, pertinho de comércio, condução e lazer: repleto de supermercados, farmácias e polo gastronô...</t>
+  </si>
+  <si>
+    <t>Mobiliado, desocupado, reformado, conjugado transformado em quarto e sala, 46 m², todo em porcelanato (elétrica, hidráulica, pintura e gás tudo novo), sala, quarto, cozinha com cop...</t>
+  </si>
+  <si>
+    <t>Cód: CPCO10006. Cobertura linear com 1 lance de escada, reformada, próxima metrô Arco Verde e Praia, quarto e sala com suíte canadense, armá;rios em todo o apartamento, acesso à va...</t>
+  </si>
+  <si>
+    <t>Posto 6, Av Copacabana com entrada pela Av. Atlântica. Localizado no trecho mais valorizado de Copacabana, na quadra da praia, perto de Ipanema e da estação do metrô, com amplo com...</t>
+  </si>
+  <si>
+    <t>Excelente apartamento, com localização privilegiada, na Rua Bolívar, de frente, com janelas de alumínio, arejado, claro, com salão, dois quartos, com armários planejados, sendo um...</t>
+  </si>
+  <si>
+    <t>Cobertura duplex localizada em ótima rua do bairro de Copacabana. Super ventilada com varandão em toda a extensão do primeiro andar e grande jardineira em toda a extensão do segund...</t>
+  </si>
+  <si>
+    <t>APARTAMENTO DUPLEX NO LEME AVENIDA ATLANTICA COM FRENTE PARA GUSTAVO SAMPAIO, 2 ENTRADAS ATLANTICA E GUSTAVO SAMPAIO, 328 M2, GARAGEM NA ESCRITURA, AMPLAS SALA DE JANTAR, SALA DE E...</t>
+  </si>
+  <si>
+    <t>Apartamento reformado ( troca de toda instalação elétrica e hidráulica ), silencioso ( último andar com pequena vista do mar) e ótima localização ( próximo do Copacabana Palace e d...</t>
+  </si>
+  <si>
+    <t>Ótimo apartamento no posto 6 de Copacabana, muito bem localizado na divisa entre Copacabana e Ipanema, à uma quadra da praia, apenas 2 apartamentos por andar. Próximo ao mercado Zo...</t>
+  </si>
+  <si>
+    <t>Vendo por motivo de mudança de país Lindo apartamento , situado em localização privilegiada, rua nobre, junto as duas melhores praias, longe de qualquer comunidade. Prédio com port...</t>
+  </si>
+  <si>
+    <t>COPACABANA - RUA FELIPE DE OLIVEIRA (POSTO 2) - FRENTE - REFORMADO E MOBILIADO. Localização privilegiada, com facilidade de acesso (metrô - estação Cardeal Arcoverde) e conveniente...</t>
+  </si>
+  <si>
+    <t>Sala comercial com 38 m² em prédio de alto gabarito, estritamente comercial, localizado no melhor ponto de Copacabana, próximo a Estação Cantagalo do metrô. Prédio com ar condicion...</t>
+  </si>
+  <si>
+    <t>Luxuoso na Santa Clara - abaixou o preço!!! R$789.000!!! Piscina, sauna e garagem. Todo em granito. Reforma total (custou 130.000) inclusive elétrica e hidraulica. Varandas com tol...</t>
+  </si>
+  <si>
+    <t>Copacabana- Excelente apto de 4 quartos ( 2 suítes),na Rua Aires Saldanha nº 66, por R$ 2.800.000,00(direto com o proprietário),com 287 metros quadrados, segunda quadra da praia du...</t>
+  </si>
+  <si>
+    <t>Apartamento no melhor ponto de Copacabana, tudo perto, metrô, comércio farto, praia, academia e hospital. Três quartos com ar condicionado, 2 banheiros,sala ampla, cozinha espaçosa...</t>
+  </si>
+  <si>
+    <t>Conjugado em uma das melhores localizações de Copacabana. A um quarteirão do metrô. Perto da praia. A 15 min a pé da lagoa Rodrigo de Freiras. Super mercado próximo. Vazio e totalm...</t>
+  </si>
+  <si>
+    <t>Vendo apto conjugado.propietario.posto 2 de copa.Rua ministro viveiros de castro 15 apto 316...de fundos.silencioso.sol de manha.dividido em qto/sala com divisoria.cozinha cabe fog...</t>
+  </si>
+  <si>
+    <t>Oportunidade em Copacabana, próximo ao metrô Cantagalo. R$ 770.000 Vende-se apartamento reformado na Pompeu Loureiro. Claro e arejado, sexto andar, com vista para montanha (foto an...</t>
+  </si>
+  <si>
+    <t>POSTO 4 - FRENTE. ÓTIMA LOCALIZAÇÃO. ANDAR ALTO. Apartamento amplo, claro e arejado, voltado para o sol da manhã. Edifício clássico com entrada social e de serviço independentes no...</t>
+  </si>
+  <si>
+    <t>Oportunidade! Venha ver! Trecho nobre do bairro, a poucas quadras da Praia de Copacabana, próximo ao verde em rua arborizada, entre as Estações de Metrô Siqueira Campos e Cardeal A...</t>
+  </si>
+  <si>
+    <t>NÃO PERCA! EXCELENTE Apartamento Conjugado no Coração de Copacabana, COLADO NO METRÔ DA SIQUEIRA CAMPOS. Patrimônio com Excelente Disposição, Andar Alto, Sol da Tarde, Vista Panorâ...</t>
+  </si>
+  <si>
+    <t>Rua Assis Bueno, Botafogo</t>
+  </si>
+  <si>
+    <t>350 - 500 m²</t>
+  </si>
+  <si>
+    <t>Rua Aires Saldanha, Copacabana</t>
+  </si>
+  <si>
+    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua General Azevedo Pimentel, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Bolivar, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Santa Clara, Copacabana</t>
+  </si>
+  <si>
+    <t>Avenida Atlântica, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Raul Pompéia, Copacabana</t>
+  </si>
+  <si>
+    <t>Avenida Rainha Elizabeth da Bélgica, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Felipe de Oliveira, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Pompeu Loureiro, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Miguel Lemos, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Ministro Viveiros de Castro, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Paula Freitas, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Siqueira Campos, Copacabana</t>
+  </si>
+  <si>
+    <t>2 - 4</t>
+  </si>
+  <si>
+    <t>65 m²</t>
+  </si>
+  <si>
+    <t>46 m²</t>
+  </si>
+  <si>
+    <t>123 m²</t>
+  </si>
+  <si>
+    <t>158 m²</t>
+  </si>
+  <si>
+    <t>78 m²</t>
+  </si>
+  <si>
+    <t>400 m²</t>
+  </si>
+  <si>
+    <t>328 m²</t>
+  </si>
+  <si>
+    <t>67 m²</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>40 m²</t>
+  </si>
+  <si>
+    <t>38 m²</t>
+  </si>
+  <si>
+    <t>63 m²</t>
+  </si>
+  <si>
+    <t>287 m²</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>30 m²</t>
+  </si>
+  <si>
+    <t>85 m²</t>
+  </si>
+  <si>
+    <t>243 m²</t>
+  </si>
+  <si>
+    <t>3 - 4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Mensagem</t>
-  </si>
-  <si>
-    <t>pronto para morar</t>
-  </si>
-  <si>
-    <t>super destaque</t>
-  </si>
-  <si>
-    <t>destaque</t>
-  </si>
-  <si>
-    <t>Sob consulta</t>
-  </si>
-  <si>
-    <t>R$ 2.800.000</t>
-  </si>
-  <si>
-    <t>R$ 550.000</t>
-  </si>
-  <si>
-    <t>R$ 860.000</t>
-  </si>
-  <si>
-    <t>R$ 460.000</t>
-  </si>
-  <si>
-    <t>R$ 800.000.000</t>
-  </si>
-  <si>
-    <t>R$ 1.150.000</t>
-  </si>
-  <si>
-    <t>R$ 980.000</t>
-  </si>
-  <si>
-    <t>R$ 7.500.000</t>
-  </si>
-  <si>
-    <t>R$ 4.000.000</t>
-  </si>
-  <si>
-    <t>R$ 849.000</t>
-  </si>
-  <si>
-    <t>R$ 770.000</t>
-  </si>
-  <si>
-    <t>R$ 390.000</t>
-  </si>
-  <si>
-    <t>R$ 397.000</t>
-  </si>
-  <si>
-    <t>R$ 1.200.000</t>
-  </si>
-  <si>
-    <t>R$ 2.850.000</t>
-  </si>
-  <si>
-    <t>R$ 2.450.000</t>
-  </si>
-  <si>
-    <t>R$ 1.650.000</t>
-  </si>
-  <si>
-    <t>R$ 350.000</t>
-  </si>
-  <si>
-    <t>R$ 1.100.000</t>
-  </si>
-  <si>
-    <t>R$ 1.500.000</t>
-  </si>
-  <si>
-    <t>R$ 1.740.000</t>
-  </si>
-  <si>
-    <t>Apartamentos de 3 e 4 quartos, com opção de plantas customizadas, lazer completo e até 3 vagas na garagem além de muita, muita sofisticação. Na Rua Pinheiro Guimarães 75, Botafogo,...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.650 IPTU R$ 770</t>
-  </si>
-  <si>
-    <t>condomínio R$ 750 IPTU R$ 80</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.126 IPTU R$ 300</t>
-  </si>
-  <si>
-    <t>condomínio R$ 472 IPTU R$ 62</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.500</t>
-  </si>
-  <si>
-    <t>condomínio R$ 965 IPTU R$ 4.667</t>
-  </si>
-  <si>
-    <t>condomínio R$ 650 IPTU R$ 1.674</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.186 IPTU R$ 900</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.239 IPTU R$ 405</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.260 IPTU R$ 2.183</t>
-  </si>
-  <si>
-    <t>condomínio R$ 810 IPTU R$ 260</t>
-  </si>
-  <si>
-    <t>condomínio R$ 490 IPTU R$ 685</t>
-  </si>
-  <si>
-    <t>condomínio R$ 550 IPTU R$ 100</t>
-  </si>
-  <si>
-    <t>condomínio R$ 950</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.782</t>
-  </si>
-  <si>
-    <t>condomínio R$ 3.000 IPTU R$ 735</t>
-  </si>
-  <si>
-    <t>condomínio R$ 2.000 IPTU R$ 4.200</t>
-  </si>
-  <si>
-    <t>condomínio R$ 397 IPTU R$ 59</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.356 IPTU R$ 2.156</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.100 IPTU R$ 2.140</t>
-  </si>
-  <si>
-    <t>condomínio R$ 3.060 IPTU R$ 628</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>Avenida Atlântica , Posto 5 !!! Andar alto!!</t>
-  </si>
-  <si>
-    <t>MARAVILHOSO APARTAMENTO DE DOIS QUARTOS REFORMADO! Apartamento amplo, claro e arejado, composto por sala bem iluminada, dois quartos com iluminação natural, sendo um com armários e...</t>
-  </si>
-  <si>
-    <t>Cód: POAP30526. Posto 3! Próximo ao metrô da Siqueira Campos e comércio variado. Apartamento com 98M², frente, todo em taco, sala em dois ambientes, ampla, com chachimbo, quartos c...</t>
-  </si>
-  <si>
-    <t>ótimo conjugado, totalmente reformado. Hidráulica e elétrica novas, trifásico, janela anti ruído. 4 unidades por andar. Metrô cantagalo na porta. Direto com proprietário.</t>
-  </si>
-  <si>
-    <t>Oportunidade! Documentação impecável. Direto com proprietário. O apartamento foi totalmente reformado em 2016, com projeto de arquitetura específico. Localização em rua arborizada...</t>
-  </si>
-  <si>
-    <t>Posto 6, Av Copacabana com entrada pela Av. Atlântica. Localizado no trecho mais valorizado de Copacabana, na quadra da praia, perto de Ipanema e da estação do metrô, com amplo com...</t>
-  </si>
-  <si>
-    <t>Vendo por motivo de mudança de país Lindo apartamento , situado em localização privilegiada, rua nobre, junto as duas melhores praias, longe de qualquer comunidade. Prédio com port...</t>
-  </si>
-  <si>
-    <t>R$ 7.500.000.- (COBERTURA TRIPLEX ) - ( Rua BOLÍVAR / Avda. ATLÂNTICA ) ( 400 m2 ) ( 1 p/ andar ) ( VISTÃO mar / montanhas de Copacabana ) ( ESPETACULAR FRONTAL ) ( 8 Quartos ) ( S...</t>
-  </si>
-  <si>
-    <t>Linda cobertura duplex no posto 4 em Copacabana, melhor localização do bairro, arejada, iluminada, silenciosa, recém reformada (incluindo parte elétrica e hidráulica), quadra da pr...</t>
-  </si>
-  <si>
-    <t>Flat Copacabana luxuoso - abaixou o preço!!! R$849.000!!! Piso em granito mobiliado (custou 130.000) total elétrica e hidraulica. Um quarto reversível +suite, 2 Wcs:social e suite...</t>
-  </si>
-  <si>
-    <t>Oportunidade em Copacabana, próximo ao metrô Cantagalo. R$ 770.000 Vende-se apartamento reformado na Pompeu Loureiro. Claro e arejado, sexto andar, com vista para montanha (foto an...</t>
-  </si>
-  <si>
-    <t>Vendo apto conjugado.propietario.posto 2 de copa.Rua ministro viveiros de castro 15 apto 316...de fundos.silencioso.sol de manha.dividido em qto/sala com divisoria.cozinha cabe fog...</t>
-  </si>
-  <si>
-    <t>Conjugado em uma das melhores localizações de Copacabana. A um quarteirão do metrô. Perto da praia. A 15 min a pé da lagoa Rodrigo de Freiras. Super mercado próximo. Vazio e totalm...</t>
-  </si>
-  <si>
-    <t>Apartamento no melhor ponto de Copacabana, tudo perto, metrô, comércio farto, praia, academia e hospital. Três quartos com ar condicionado, 2 banheiros,sala ampla, cozinha espaçosa...</t>
-  </si>
-  <si>
-    <t>Copacabana- Excelente apto de 4 quartos ( 2 suítes) por R$ 2.850.000,00(direito com o proprietário), com 287 metros quadrados, segunda quadra da praia duas vagas de garagem, todo r...</t>
-  </si>
-  <si>
-    <t>Excelente apartamento de 188 m² e 3 quartos em andar alto, com vista para o mar e a uma quadra da Parque Garota de Ipanema e da praia do Arpoador/Ipanema. Prédio com um imóvel por...</t>
-  </si>
-  <si>
-    <t>Excelente apartamento em ótimo edifício localizado na Avenida Rainha Elizabeth da Bélgica a poucos metros da Avenida Vieira Souto.</t>
-  </si>
-  <si>
-    <t>Voltei a vender em r agora de R$ 395.000 por R$ 350.000 para fechar negocio direto com proprietário. Melhor mandar mensagem para meu whatsup, vejo pouco emails. Obrigado</t>
-  </si>
-  <si>
-    <t>Condomínio Mirante de Copacabana. Planta original, sala em dois ambientes, três quartos com armários embutidos, dois banheiros sociais, cozinha planejada. Área de serviço e dependê...</t>
-  </si>
-  <si>
-    <t>🔎 Apartamento moderno, reformado e bem localizado na zona sul? Um achado!</t>
-  </si>
-  <si>
-    <t>Apartamento de 4 quartos (1 suíte). 202m2. Banheiro Social. Quartos espaçosos. Sala dividida em 3 ambientes. Cozinha, área de serviço e dependência completa de empregada (2 quartos...</t>
-  </si>
-  <si>
-    <t>Rua Pinheiro Guimarães, Botafogo</t>
-  </si>
-  <si>
-    <t>104 m²</t>
-  </si>
-  <si>
-    <t>Oportunidade! Documentação cristalina!</t>
-  </si>
-  <si>
-    <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Hilário de Gouveia, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Barata Ribeiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Ministro Alfredo Valadão, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Rainha Elizabeth da Bélgica, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Bolivar, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Domingos Ferreira, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Santa Clara, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Pompeu Loureiro, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Ministro Viveiros de Castro, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Miguel Lemos, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Aires Saldanha, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Bulhões de Carvalho, Copacabana</t>
-  </si>
-  <si>
-    <t>Imóvel de frente, andar alto, arejado, cla...</t>
-  </si>
-  <si>
-    <t>🔝Apartamento 100% reformado (incluindo toda parte elétrica, hidráulica e gás), em conceito aberto...</t>
-  </si>
-  <si>
-    <t>Rua Leopoldo Miguez, Copacabana</t>
-  </si>
-  <si>
-    <t>3 - 4</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>98 m²</t>
-  </si>
-  <si>
-    <t>23 m²</t>
-  </si>
-  <si>
-    <t>97 m²</t>
-  </si>
-  <si>
-    <t>158 m²</t>
-  </si>
-  <si>
-    <t>400 m²</t>
-  </si>
-  <si>
-    <t>250 m²</t>
-  </si>
-  <si>
-    <t>63 m²</t>
-  </si>
-  <si>
-    <t>85 m²</t>
-  </si>
-  <si>
-    <t>30 m²</t>
-  </si>
-  <si>
-    <t>40 m²</t>
-  </si>
-  <si>
-    <t>80 m²</t>
-  </si>
-  <si>
-    <t>287 m²</t>
-  </si>
-  <si>
-    <t>188 m²</t>
-  </si>
-  <si>
-    <t>32 m²</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>202 m²</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>Incrível apartamento totalmente reformado em suas instalações elétricas e hidráuli...</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>106 m²</t>
-  </si>
-  <si>
-    <t>Avenida Atlântica, Copacabana</t>
-  </si>
-  <si>
-    <t>180 m²</t>
   </si>
 </sst>
 </file>
@@ -725,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -765,33 +744,48 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -800,109 +794,106 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -911,688 +902,638 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>105</v>
+      </c>
+      <c r="L15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J16" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>104</v>
+      </c>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>104</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s">
         <v>106</v>
       </c>
-      <c r="J22" t="s">
-        <v>111</v>
-      </c>
       <c r="K22" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
